--- a/data/excel/PlanyourtripCam.xlsx
+++ b/data/excel/PlanyourtripCam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF921AB-C9EA-4E08-8328-2B8E10EC148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643813F-3D6E-44B6-9014-D9B5595DE687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Source</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Thursday, August 18, 2022</t>
-  </si>
-  <si>
-    <t>Friday, August 19, 2022</t>
   </si>
   <si>
     <t>Travel to Dubai325</t>
@@ -209,6 +206,15 @@
   </si>
   <si>
     <t>Travel to Dubai524</t>
+  </si>
+  <si>
+    <t>Friday, September 19, 2022</t>
+  </si>
+  <si>
+    <t>Thursday, September 22, 2022</t>
+  </si>
+  <si>
+    <t>Friday, September 23, 2022</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,19 +621,19 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="101.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -733,13 +739,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -751,13 +757,13 @@
         <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>14</v>
@@ -769,10 +775,10 @@
         <v>45</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>22</v>
@@ -781,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>10</v>
@@ -819,13 +825,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -837,13 +843,13 @@
         <v>46</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>14</v>
@@ -855,10 +861,10 @@
         <v>45</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>31</v>
@@ -867,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>10</v>
@@ -905,13 +911,13 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -923,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
@@ -941,25 +947,25 @@
         <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>10</v>
@@ -991,13 +997,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -1009,13 +1015,13 @@
         <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>43</v>
@@ -1027,25 +1033,25 @@
         <v>45</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>10</v>
